--- a/score.xlsx
+++ b/score.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20400" yWindow="5640" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="20440" yWindow="5640" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
